--- a/suffix_data/Suffix_Yaris_HB.xlsx
+++ b/suffix_data/Suffix_Yaris_HB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah Alfons\Python Projects\front-ub-tmmin\ai-ub-front-p2\backend\suffix_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah Alfons\Toyota\front_project\front_ub_no_ms\backend\suffix_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Yaris_HB" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
   <si>
     <t>3 HOLES</t>
   </si>
@@ -560,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,310 +613,178 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
+      <c r="A2" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
+      <c r="A4" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+      <c r="A5" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -930,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
